--- a/config_4.6/activity_ty_task_config.xlsx
+++ b/config_4.6/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
   <si>
     <t>index|索引</t>
   </si>
@@ -428,14 +428,6 @@
     <t>限时返利--v4_normal</t>
   </si>
   <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>act_lgfl_v4_normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -661,10 +653,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
   </si>
   <si>
@@ -700,6 +688,21 @@
   <si>
     <t>2088888,1988,"核桃早餐奶8盒"</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_banner_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1218,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,6 +1234,7 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1265,7 +1269,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1284,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1298,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1315,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1332,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1349,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1548,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -1601,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1645,7 +1649,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1654,7 +1658,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1678,7 +1682,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1710,7 +1714,7 @@
         <v>1000482</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1722,7 +1726,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1743,10 +1747,10 @@
         <v>1000483</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1776,10 +1780,10 @@
         <v>1000484</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1812,7 +1816,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1821,7 +1825,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1843,10 +1847,10 @@
         <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1855,10 +1859,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1873,7 +1877,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1882,10 +1886,10 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1897,7 +1901,7 @@
         <v>1000488</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1909,10 +1913,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1927,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1936,10 +1940,10 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1951,10 +1955,10 @@
         <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1966,7 +1970,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1978,10 +1982,10 @@
         <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -1990,7 +1994,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2005,10 +2009,10 @@
         <v>1000492</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2017,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2035,7 +2039,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2044,7 +2048,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2062,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2071,7 +2075,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2089,7 +2093,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2098,7 +2102,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2122,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>51</v>
@@ -2197,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2230,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>73</v>
@@ -2257,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>74</v>
@@ -2284,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>73</v>
@@ -2311,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>74</v>
@@ -2338,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>74</v>
@@ -2351,7 +2355,7 @@
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2374,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>75</v>
@@ -2387,7 +2391,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2410,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
@@ -2422,10 +2426,10 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2446,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>76</v>
@@ -2475,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>72</v>
@@ -2502,16 +2506,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2531,16 +2535,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2560,16 +2564,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2589,16 +2593,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2618,10 +2622,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>72</v>
@@ -2631,7 +2635,7 @@
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2654,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
@@ -2667,7 +2671,7 @@
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2690,20 +2694,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2723,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2752,16 +2756,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_4.6/activity_ty_task_config.xlsx
+++ b/config_4.6/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>index|索引</t>
   </si>
@@ -601,10 +601,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在西游消消乐中消除3个孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -703,6 +699,62 @@
   <si>
     <t>ltfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -868,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,6 +993,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1221,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1269,7 +1324,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1288,7 +1343,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1305,7 +1360,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1322,7 +1377,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1339,7 +1394,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1356,7 +1411,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1552,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1620,8 @@
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="86.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
@@ -1847,10 +1903,10 @@
         <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1862,7 +1918,7 @@
         <v>116</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1889,7 +1945,7 @@
         <v>115</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1916,7 +1972,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1943,7 +1999,7 @@
         <v>115</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1955,10 +2011,10 @@
         <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1970,7 +2026,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1982,10 +2038,10 @@
         <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2039,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2066,7 +2122,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2093,7 +2149,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2234,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2242,7 +2298,9 @@
       <c r="H22" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
@@ -2261,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2269,7 +2327,9 @@
       <c r="H23" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
@@ -2288,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2296,7 +2356,9 @@
       <c r="H24" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
@@ -2315,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2323,7 +2385,9 @@
       <c r="H25" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
@@ -2342,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>94</v>
@@ -2350,12 +2414,14 @@
       <c r="H26" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2378,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>95</v>
@@ -2386,12 +2452,14 @@
       <c r="H27" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2414,22 +2482,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31" t="s">
+        <v>161</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2450,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2458,7 +2528,9 @@
       <c r="H29" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
@@ -2479,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2487,7 +2559,9 @@
       <c r="H30" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
@@ -2506,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>98</v>
@@ -2514,8 +2588,8 @@
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="31" t="s">
-        <v>124</v>
+      <c r="I31" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2535,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -2543,8 +2617,8 @@
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>124</v>
+      <c r="I32" s="37" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2564,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>92</v>
@@ -2572,8 +2646,8 @@
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>124</v>
+      <c r="I33" s="37" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2593,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>93</v>
@@ -2601,8 +2675,8 @@
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>124</v>
+      <c r="I34" s="37" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2622,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>94</v>
@@ -2630,12 +2704,14 @@
       <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="31" t="s">
+        <v>162</v>
+      </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2658,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>95</v>
@@ -2666,12 +2742,14 @@
       <c r="H36" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="31" t="s">
+        <v>163</v>
+      </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2694,20 +2772,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="L37" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2727,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -2736,7 +2816,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2756,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>96</v>
@@ -2765,7 +2845,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
